--- a/2022_NBA_Drafted_Player_Stats.xlsx
+++ b/2022_NBA_Drafted_Player_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="207">
   <si>
     <t>Player</t>
   </si>
@@ -22,6 +22,21 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Games Played</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Minutes Played</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
     <t>Paolo Banchero</t>
   </si>
   <si>
@@ -145,52 +160,481 @@
     <t>Ryan Rollins</t>
   </si>
   <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
     <t>TOR</t>
   </si>
   <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>DAL</t>
+    <t>LAL</t>
   </si>
   <si>
     <t>MIN</t>
   </si>
   <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>CHA</t>
-  </si>
-  <si>
-    <t>ORL</t>
-  </si>
-  <si>
-    <t>PHX</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>BKN</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>NYK</t>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>29.8</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t>27.6</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1.9</t>
   </si>
 </sst>
 </file>
@@ -548,304 +992,976 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>42</v>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/2022_NBA_Drafted_Player_Stats.xlsx
+++ b/2022_NBA_Drafted_Player_Stats.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thops\OneDrive\Desktop\2023\github projects\NBA Drafted Player Impact\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81964CD8-17F8-4A15-A07E-AA537628EB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022 Draft Stats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1234,8 +1240,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,13 +1304,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1342,7 +1356,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1376,6 +1390,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1410,9 +1425,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1585,14 +1601,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1758,7 +1776,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1841,7 +1859,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1924,7 +1942,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2007,7 +2025,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2090,7 +2108,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2173,7 +2191,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2256,7 +2274,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2339,7 +2357,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2422,7 +2440,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2505,7 +2523,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2588,7 +2606,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2671,7 +2689,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2754,7 +2772,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2837,7 +2855,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2920,7 +2938,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -3003,7 +3021,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -3086,7 +3104,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -3169,7 +3187,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -3252,7 +3270,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -3335,7 +3353,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -3418,7 +3436,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -3501,7 +3519,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -3584,7 +3602,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3667,7 +3685,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -3750,7 +3768,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3833,7 +3851,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -3916,7 +3934,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -3999,7 +4017,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -4082,7 +4100,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -4165,7 +4183,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -4248,7 +4266,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -4331,7 +4349,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -4414,7 +4432,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -4497,7 +4515,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -4580,7 +4598,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -4663,7 +4681,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -4746,7 +4764,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -4829,7 +4847,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -4912,7 +4930,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -4995,7 +5013,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>66</v>
       </c>
